--- a/icd_files/68007.xlsx
+++ b/icd_files/68007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36BCA09-E3B4-49D4-B554-342F61FCA145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230E7991-7231-457D-94E8-987D5493337E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="402">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -702,6 +702,9 @@
     <t>12-19</t>
   </si>
   <si>
+    <t>12-24</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -711,13 +714,82 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Doxycycline Hyclate</t>
+  </si>
+  <si>
+    <t>Nitroglycerin SL</t>
+  </si>
+  <si>
+    <t>Potassium Chloride Replacement (Oncology)</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Sterile Water</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
     <t>Furosemide</t>
   </si>
   <si>
+    <t>PredniSONE</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
     <t>Albuterol 0.083% Neb Soln</t>
   </si>
   <si>
-    <t>Potassium Chloride Replacement (Oncology)</t>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t>Miconazole Powder 2%</t>
+  </si>
+  <si>
+    <t>Colchicine</t>
+  </si>
+  <si>
+    <t>Aspirin</t>
+  </si>
+  <si>
+    <t>Lidocaine 5% Patch</t>
+  </si>
+  <si>
+    <t>Glucagon</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluticasone-Salmeterol Diskus (250/50) </t>
   </si>
   <si>
     <t>00:00</t>
@@ -732,9 +804,48 @@
     <t>80 VIAL</t>
   </si>
   <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
     <t>1 VIAL</t>
   </si>
   <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
+  </si>
+  <si>
+    <t>0.6 TAB</t>
+  </si>
+  <si>
+    <t>325 TAB</t>
+  </si>
+  <si>
+    <t>3 PTCH</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>1 DEV</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -756,6 +867,9 @@
     <t>20:18</t>
   </si>
   <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
     <t>00:26</t>
   </si>
   <si>
@@ -771,7 +885,22 @@
     <t>16:01</t>
   </si>
   <si>
-    <t>40 TAB</t>
+    <t>0.3 TAB</t>
+  </si>
+  <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>2-4 BAG</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
+    <t>80 BAG</t>
   </si>
   <si>
     <t>80 TAB</t>
@@ -786,6 +915,9 @@
     <t>00:22</t>
   </si>
   <si>
+    <t>30 TAB</t>
+  </si>
+  <si>
     <t>01:02</t>
   </si>
   <si>
@@ -804,9 +936,15 @@
     <t>Confused</t>
   </si>
   <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
     <t>21:33</t>
   </si>
   <si>
+    <t>650 TAB</t>
+  </si>
+  <si>
     <t>00:33</t>
   </si>
   <si>
@@ -814,6 +952,9 @@
   </si>
   <si>
     <t>08:32</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -4322,7 +4463,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000000-C0D4-45C0-BF58-77BBACC7EDEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5500,7 +5641,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000001-C0D4-45C0-BF58-77BBACC7EDEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6678,7 +6819,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000002-C0D4-45C0-BF58-77BBACC7EDEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7952,7 +8093,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000003-C0D4-45C0-BF58-77BBACC7EDEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9220,7 +9361,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000004-C0D4-45C0-BF58-77BBACC7EDEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10035,7 +10176,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000005-C0D4-45C0-BF58-77BBACC7EDEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10743,7 +10884,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000006-C0D4-45C0-BF58-77BBACC7EDEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11451,7 +11592,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000007-C0D4-45C0-BF58-77BBACC7EDEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12159,7 +12300,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000008-C0D4-45C0-BF58-77BBACC7EDEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12602,7 +12743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E81556-3B66-4611-8933-67ADAB357EB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD723B9E-25B5-4B08-8491-3BA0BF19D06A}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -12627,7 +12768,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12640,7 +12781,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -12653,7 +12794,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -12666,7 +12807,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -12679,27 +12820,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -12727,7 +12868,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -12755,11 +12896,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -12782,7 +12923,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12819,7 +12960,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -12842,14 +12983,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -12872,14 +13013,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -12902,14 +13043,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -12932,14 +13073,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -12962,16 +13103,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -12994,14 +13135,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -13024,10 +13165,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -13035,7 +13176,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -13047,7 +13188,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -13070,7 +13211,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -13086,11 +13227,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -13113,7 +13254,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -13131,7 +13272,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -13154,7 +13295,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -13173,7 +13314,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -13196,10 +13337,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -13217,7 +13358,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -13240,52 +13381,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -13308,53 +13449,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -13377,43 +13518,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -13421,7 +13562,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -13444,43 +13585,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -13488,7 +13629,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -13511,43 +13652,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -13555,7 +13696,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -13578,43 +13719,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -13622,7 +13763,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -13645,43 +13786,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -13689,7 +13830,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -13712,43 +13853,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -13756,7 +13897,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -13779,43 +13920,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -13823,7 +13964,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -13846,43 +13987,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -13890,7 +14031,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -13913,43 +14054,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -13957,7 +14098,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -13980,43 +14121,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -14024,7 +14165,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -14047,43 +14188,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -14091,7 +14232,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -14114,7 +14255,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -14127,10 +14268,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -14138,7 +14279,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -14161,14 +14302,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -14183,7 +14324,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -14206,7 +14347,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -14226,7 +14367,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -14249,7 +14390,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -14269,7 +14410,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -14292,7 +14433,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -14310,11 +14451,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -14337,14 +14478,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -14367,14 +14508,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -14397,14 +14538,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -14427,14 +14568,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -14457,14 +14598,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -14487,14 +14628,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -14517,10 +14658,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -14537,7 +14678,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -14560,7 +14701,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -14578,7 +14719,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -14601,7 +14742,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -14619,7 +14760,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -14642,14 +14783,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -14672,14 +14813,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -14702,24 +14843,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -14742,7 +14883,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -14751,7 +14892,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -14774,14 +14915,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -14789,7 +14930,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -14812,7 +14953,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -14821,7 +14962,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -14844,14 +14985,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -14859,7 +15000,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -14882,7 +15023,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -14891,7 +15032,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -14914,24 +15055,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -14954,7 +15095,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -14963,7 +15104,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -14986,22 +15127,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -15009,7 +15150,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -15032,7 +15173,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -15045,7 +15186,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -15068,32 +15209,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -15116,7 +15257,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -15125,7 +15266,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -15148,14 +15289,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -15163,7 +15304,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -15186,14 +15327,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -15216,12 +15357,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -15249,7 +15390,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -15276,13 +15417,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -15310,7 +15451,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -15422,7 +15563,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -15450,7 +15591,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -15478,7 +15619,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -20202,13 +20343,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BD38"/>
+  <dimension ref="A30:BP61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -20216,7 +20357,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>217</v>
       </c>
@@ -20242,13 +20383,13 @@
         <v>217</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>218</v>
@@ -20260,13 +20401,13 @@
         <v>218</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>219</v>
@@ -20281,13 +20422,13 @@
         <v>219</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>220</v>
@@ -20296,636 +20437,1321 @@
         <v>220</v>
       </c>
       <c r="AB31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AL31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AM31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AN31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AO31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AX31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="BH31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="BI31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="BJ31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BK31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="BL31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="BM31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="BN31" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BO31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP31" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" t="s">
+        <v>274</v>
+      </c>
+      <c r="I32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" t="s">
+        <v>277</v>
+      </c>
+      <c r="L32" t="s">
+        <v>278</v>
+      </c>
+      <c r="M32" t="s">
+        <v>256</v>
+      </c>
+      <c r="N32" t="s">
+        <v>274</v>
+      </c>
+      <c r="O32" t="s">
+        <v>275</v>
+      </c>
+      <c r="P32" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>279</v>
+      </c>
+      <c r="R32" t="s">
+        <v>280</v>
+      </c>
+      <c r="S32" t="s">
+        <v>256</v>
+      </c>
+      <c r="T32" t="s">
+        <v>282</v>
+      </c>
+      <c r="U32" t="s">
+        <v>283</v>
+      </c>
+      <c r="V32" t="s">
+        <v>284</v>
+      </c>
+      <c r="W32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>277</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>300</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>275</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>302</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>278</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>274</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>275</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>301</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>308</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>309</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" t="s">
+        <v>257</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" t="s">
+        <v>257</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N33" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33" t="s">
+        <v>257</v>
+      </c>
+      <c r="P33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>257</v>
+      </c>
+      <c r="R33" t="s">
+        <v>257</v>
+      </c>
+      <c r="T33" t="s">
+        <v>257</v>
+      </c>
+      <c r="U33" t="s">
+        <v>257</v>
+      </c>
+      <c r="V33" t="s">
+        <v>257</v>
+      </c>
+      <c r="W33" t="s">
+        <v>257</v>
+      </c>
+      <c r="X33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" t="s">
+        <v>258</v>
+      </c>
+      <c r="H34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="s">
+        <v>258</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
+        <v>258</v>
+      </c>
+      <c r="P34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>258</v>
+      </c>
+      <c r="R34" t="s">
+        <v>258</v>
+      </c>
+      <c r="T34" t="s">
+        <v>258</v>
+      </c>
+      <c r="U34" t="s">
+        <v>258</v>
+      </c>
+      <c r="V34" t="s">
+        <v>258</v>
+      </c>
+      <c r="W34" t="s">
+        <v>258</v>
+      </c>
+      <c r="X34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="S36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" t="s">
-        <v>232</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="Z38" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F32" t="s">
+      <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" t="s">
+        <v>259</v>
+      </c>
+      <c r="M43" t="s">
+        <v>259</v>
+      </c>
+      <c r="S43" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>259</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G32" t="s">
+      <c r="B44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" t="s">
+        <v>260</v>
+      </c>
+      <c r="G44" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>297</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>304</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H32" t="s">
+      <c r="BL45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I32" t="s">
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" t="s">
+        <v>261</v>
+      </c>
+      <c r="E46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" t="s">
+        <v>261</v>
+      </c>
+      <c r="G46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J32" t="s">
-        <v>232</v>
-      </c>
-      <c r="K32" t="s">
-        <v>237</v>
-      </c>
-      <c r="L32" t="s">
-        <v>238</v>
-      </c>
-      <c r="M32" t="s">
-        <v>239</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E47" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" t="s">
+        <v>262</v>
+      </c>
+      <c r="G47" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="O32" t="s">
+      <c r="B48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E48" t="s">
+        <v>263</v>
+      </c>
+      <c r="F48" t="s">
+        <v>263</v>
+      </c>
+      <c r="G48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="P32" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="B49" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" t="s">
+        <v>264</v>
+      </c>
+      <c r="E49" t="s">
+        <v>264</v>
+      </c>
+      <c r="F49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="R32" t="s">
+      <c r="B50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" t="s">
+        <v>265</v>
+      </c>
+      <c r="G50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="S32" t="s">
+      <c r="B51" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="T32" t="s">
+      <c r="B52" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="U32" t="s">
+      <c r="B53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" t="s">
+        <v>268</v>
+      </c>
+      <c r="F53" t="s">
+        <v>268</v>
+      </c>
+      <c r="G53" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="V32" t="s">
-        <v>241</v>
-      </c>
-      <c r="W32" t="s">
-        <v>232</v>
-      </c>
-      <c r="X32" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z32" t="s">
+      <c r="B54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E54" t="s">
+        <v>261</v>
+      </c>
+      <c r="F54" t="s">
+        <v>261</v>
+      </c>
+      <c r="G54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>269</v>
+      </c>
+      <c r="E55" t="s">
+        <v>269</v>
+      </c>
+      <c r="F55" t="s">
+        <v>269</v>
+      </c>
+      <c r="G55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" t="s">
+        <v>270</v>
+      </c>
+      <c r="F56" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57" t="s">
+        <v>261</v>
+      </c>
+      <c r="F57" t="s">
+        <v>261</v>
+      </c>
+      <c r="G57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AB32" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC32" t="s">
+      <c r="B58" t="s">
+        <v>271</v>
+      </c>
+      <c r="C58" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" t="s">
+        <v>271</v>
+      </c>
+      <c r="F58" t="s">
+        <v>271</v>
+      </c>
+      <c r="G58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AD32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>240</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI32" t="s">
+      <c r="S59" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AJ32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>239</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM32" t="s">
+      <c r="B60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" t="s">
+        <v>272</v>
+      </c>
+      <c r="E60" t="s">
+        <v>272</v>
+      </c>
+      <c r="F60" t="s">
+        <v>272</v>
+      </c>
+      <c r="G60" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AN32" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>232</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>257</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>241</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>232</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>257</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>258</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>261</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>262</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C33" t="s">
-        <v>233</v>
-      </c>
-      <c r="D33" t="s">
-        <v>233</v>
-      </c>
-      <c r="E33" t="s">
-        <v>233</v>
-      </c>
-      <c r="F33" t="s">
-        <v>233</v>
-      </c>
-      <c r="G33" t="s">
-        <v>233</v>
-      </c>
-      <c r="H33" t="s">
-        <v>233</v>
-      </c>
-      <c r="I33" t="s">
-        <v>233</v>
-      </c>
-      <c r="J33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K33" t="s">
-        <v>233</v>
-      </c>
-      <c r="L33" t="s">
-        <v>233</v>
-      </c>
-      <c r="M33" t="s">
-        <v>233</v>
-      </c>
-      <c r="N33" t="s">
-        <v>233</v>
-      </c>
-      <c r="O33" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>233</v>
-      </c>
-      <c r="R33" t="s">
-        <v>233</v>
-      </c>
-      <c r="S33" t="s">
-        <v>233</v>
-      </c>
-      <c r="T33" t="s">
-        <v>233</v>
-      </c>
-      <c r="U33" t="s">
-        <v>233</v>
-      </c>
-      <c r="V33" t="s">
-        <v>233</v>
-      </c>
-      <c r="W33" t="s">
-        <v>233</v>
-      </c>
-      <c r="X33" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>233</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>233</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>233</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F34" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34" t="s">
-        <v>234</v>
-      </c>
-      <c r="H34" t="s">
-        <v>234</v>
-      </c>
-      <c r="I34" t="s">
-        <v>234</v>
-      </c>
-      <c r="J34" t="s">
-        <v>234</v>
-      </c>
-      <c r="K34" t="s">
-        <v>234</v>
-      </c>
-      <c r="L34" t="s">
-        <v>234</v>
-      </c>
-      <c r="M34" t="s">
-        <v>234</v>
-      </c>
-      <c r="N34" t="s">
-        <v>234</v>
-      </c>
-      <c r="O34" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>234</v>
-      </c>
-      <c r="R34" t="s">
-        <v>234</v>
-      </c>
-      <c r="S34" t="s">
-        <v>234</v>
-      </c>
-      <c r="T34" t="s">
-        <v>234</v>
-      </c>
-      <c r="U34" t="s">
-        <v>234</v>
-      </c>
-      <c r="V34" t="s">
-        <v>234</v>
-      </c>
-      <c r="W34" t="s">
-        <v>234</v>
-      </c>
-      <c r="X34" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>234</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>234</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" t="s">
-        <v>235</v>
-      </c>
-      <c r="J36" t="s">
-        <v>235</v>
-      </c>
-      <c r="P36" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" t="s">
-        <v>236</v>
-      </c>
-      <c r="D37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="W38" t="s">
-        <v>249</v>
-      </c>
-      <c r="X38" t="s">
-        <v>250</v>
+      <c r="B61" t="s">
+        <v>273</v>
+      </c>
+      <c r="C61" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E61" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/68007.xlsx
+++ b/icd_files/68007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36BCA09-E3B4-49D4-B554-342F61FCA145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BB6D4C-805A-4EDC-AC90-24E9F34D9D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="402">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -702,6 +702,9 @@
     <t>12-19</t>
   </si>
   <si>
+    <t>12-24</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -711,13 +714,82 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Doxycycline Hyclate</t>
+  </si>
+  <si>
+    <t>Nitroglycerin SL</t>
+  </si>
+  <si>
+    <t>Potassium Chloride Replacement (Oncology)</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Sterile Water</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
     <t>Furosemide</t>
   </si>
   <si>
+    <t>PredniSONE</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
     <t>Albuterol 0.083% Neb Soln</t>
   </si>
   <si>
-    <t>Potassium Chloride Replacement (Oncology)</t>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t>Miconazole Powder 2%</t>
+  </si>
+  <si>
+    <t>Colchicine</t>
+  </si>
+  <si>
+    <t>Aspirin</t>
+  </si>
+  <si>
+    <t>Lidocaine 5% Patch</t>
+  </si>
+  <si>
+    <t>Glucagon</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluticasone-Salmeterol Diskus (250/50) </t>
   </si>
   <si>
     <t>00:00</t>
@@ -732,9 +804,48 @@
     <t>80 VIAL</t>
   </si>
   <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
     <t>1 VIAL</t>
   </si>
   <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
+  </si>
+  <si>
+    <t>0.6 TAB</t>
+  </si>
+  <si>
+    <t>325 TAB</t>
+  </si>
+  <si>
+    <t>3 PTCH</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>1 DEV</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -756,6 +867,9 @@
     <t>20:18</t>
   </si>
   <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
     <t>00:26</t>
   </si>
   <si>
@@ -771,7 +885,22 @@
     <t>16:01</t>
   </si>
   <si>
-    <t>40 TAB</t>
+    <t>0.3 TAB</t>
+  </si>
+  <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>2-4 BAG</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
+    <t>80 BAG</t>
   </si>
   <si>
     <t>80 TAB</t>
@@ -786,6 +915,9 @@
     <t>00:22</t>
   </si>
   <si>
+    <t>30 TAB</t>
+  </si>
+  <si>
     <t>01:02</t>
   </si>
   <si>
@@ -804,9 +936,15 @@
     <t>Confused</t>
   </si>
   <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
     <t>21:33</t>
   </si>
   <si>
+    <t>650 TAB</t>
+  </si>
+  <si>
     <t>00:33</t>
   </si>
   <si>
@@ -814,6 +952,9 @@
   </si>
   <si>
     <t>08:32</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -4322,7 +4463,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000000-2FB8-4F85-8F0C-23C23BB4DA36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5500,7 +5641,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000001-2FB8-4F85-8F0C-23C23BB4DA36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6678,7 +6819,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000002-2FB8-4F85-8F0C-23C23BB4DA36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7952,7 +8093,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000003-2FB8-4F85-8F0C-23C23BB4DA36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9220,7 +9361,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000004-2FB8-4F85-8F0C-23C23BB4DA36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10035,7 +10176,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000005-2FB8-4F85-8F0C-23C23BB4DA36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10743,7 +10884,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000006-2FB8-4F85-8F0C-23C23BB4DA36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11451,7 +11592,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000007-2FB8-4F85-8F0C-23C23BB4DA36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12159,7 +12300,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-FC19-428A-9C22-D91AD7CF236D}"/>
+              <c16:uniqueId val="{00000008-2FB8-4F85-8F0C-23C23BB4DA36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12602,7 +12743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E81556-3B66-4611-8933-67ADAB357EB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5029905-A652-4B2C-A5A3-57224665F37B}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -12627,7 +12768,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12640,7 +12781,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -12653,7 +12794,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -12666,7 +12807,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -12679,27 +12820,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -12727,7 +12868,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -12755,11 +12896,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -12782,7 +12923,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12819,7 +12960,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -12842,14 +12983,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -12872,14 +13013,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -12902,14 +13043,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -12932,14 +13073,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -12962,16 +13103,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -12994,14 +13135,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -13024,10 +13165,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -13035,7 +13176,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -13047,7 +13188,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -13070,7 +13211,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -13086,11 +13227,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -13113,7 +13254,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -13131,7 +13272,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -13154,7 +13295,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -13173,7 +13314,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -13196,10 +13337,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -13217,7 +13358,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -13240,52 +13381,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -13308,53 +13449,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -13377,43 +13518,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -13421,7 +13562,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -13444,43 +13585,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -13488,7 +13629,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -13511,43 +13652,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -13555,7 +13696,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -13578,43 +13719,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -13622,7 +13763,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -13645,43 +13786,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -13689,7 +13830,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -13712,43 +13853,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -13756,7 +13897,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -13779,43 +13920,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -13823,7 +13964,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -13846,43 +13987,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -13890,7 +14031,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -13913,43 +14054,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -13957,7 +14098,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -13980,43 +14121,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -14024,7 +14165,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -14047,43 +14188,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -14091,7 +14232,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -14114,7 +14255,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -14127,10 +14268,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -14138,7 +14279,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -14161,14 +14302,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -14183,7 +14324,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -14206,7 +14347,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -14226,7 +14367,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -14249,7 +14390,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -14269,7 +14410,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -14292,7 +14433,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -14310,11 +14451,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -14337,14 +14478,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -14367,14 +14508,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -14397,14 +14538,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -14427,14 +14568,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -14457,14 +14598,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -14487,14 +14628,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -14517,10 +14658,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -14537,7 +14678,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -14560,7 +14701,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -14578,7 +14719,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -14601,7 +14742,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -14619,7 +14760,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -14642,14 +14783,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -14672,14 +14813,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -14702,24 +14843,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -14742,7 +14883,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -14751,7 +14892,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -14774,14 +14915,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -14789,7 +14930,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -14812,7 +14953,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -14821,7 +14962,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -14844,14 +14985,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -14859,7 +15000,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -14882,7 +15023,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -14891,7 +15032,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -14914,24 +15055,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -14954,7 +15095,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -14963,7 +15104,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -14986,22 +15127,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -15009,7 +15150,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -15032,7 +15173,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -15045,7 +15186,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -15068,32 +15209,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -15116,7 +15257,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -15125,7 +15266,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -15148,14 +15289,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -15163,7 +15304,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -15186,14 +15327,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -15216,12 +15357,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -15249,7 +15390,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -15276,13 +15417,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -15310,7 +15451,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -15422,7 +15563,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -15450,7 +15591,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -15478,7 +15619,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -20202,13 +20343,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BD38"/>
+  <dimension ref="A30:BP61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -20216,7 +20357,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>217</v>
       </c>
@@ -20242,13 +20383,13 @@
         <v>217</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>218</v>
@@ -20260,13 +20401,13 @@
         <v>218</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>219</v>
@@ -20281,13 +20422,13 @@
         <v>219</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>220</v>
@@ -20296,636 +20437,1321 @@
         <v>220</v>
       </c>
       <c r="AB31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AL31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AM31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AN31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AO31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AX31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="BH31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="BI31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="BJ31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BK31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="BL31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="BM31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="BN31" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BO31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP31" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" t="s">
+        <v>274</v>
+      </c>
+      <c r="I32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" t="s">
+        <v>277</v>
+      </c>
+      <c r="L32" t="s">
+        <v>278</v>
+      </c>
+      <c r="M32" t="s">
+        <v>256</v>
+      </c>
+      <c r="N32" t="s">
+        <v>274</v>
+      </c>
+      <c r="O32" t="s">
+        <v>275</v>
+      </c>
+      <c r="P32" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>279</v>
+      </c>
+      <c r="R32" t="s">
+        <v>280</v>
+      </c>
+      <c r="S32" t="s">
+        <v>256</v>
+      </c>
+      <c r="T32" t="s">
+        <v>282</v>
+      </c>
+      <c r="U32" t="s">
+        <v>283</v>
+      </c>
+      <c r="V32" t="s">
+        <v>284</v>
+      </c>
+      <c r="W32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>277</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>300</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>275</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>302</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>278</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>274</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>275</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>301</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>256</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>308</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>309</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" t="s">
+        <v>257</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" t="s">
+        <v>257</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N33" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33" t="s">
+        <v>257</v>
+      </c>
+      <c r="P33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>257</v>
+      </c>
+      <c r="R33" t="s">
+        <v>257</v>
+      </c>
+      <c r="T33" t="s">
+        <v>257</v>
+      </c>
+      <c r="U33" t="s">
+        <v>257</v>
+      </c>
+      <c r="V33" t="s">
+        <v>257</v>
+      </c>
+      <c r="W33" t="s">
+        <v>257</v>
+      </c>
+      <c r="X33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" t="s">
+        <v>258</v>
+      </c>
+      <c r="H34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="s">
+        <v>258</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
+        <v>258</v>
+      </c>
+      <c r="P34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>258</v>
+      </c>
+      <c r="R34" t="s">
+        <v>258</v>
+      </c>
+      <c r="T34" t="s">
+        <v>258</v>
+      </c>
+      <c r="U34" t="s">
+        <v>258</v>
+      </c>
+      <c r="V34" t="s">
+        <v>258</v>
+      </c>
+      <c r="W34" t="s">
+        <v>258</v>
+      </c>
+      <c r="X34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="S36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" t="s">
-        <v>232</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="Z38" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F32" t="s">
+      <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" t="s">
+        <v>259</v>
+      </c>
+      <c r="M43" t="s">
+        <v>259</v>
+      </c>
+      <c r="S43" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>259</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G32" t="s">
+      <c r="B44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" t="s">
+        <v>260</v>
+      </c>
+      <c r="G44" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>297</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>304</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H32" t="s">
+      <c r="BL45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I32" t="s">
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" t="s">
+        <v>261</v>
+      </c>
+      <c r="E46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" t="s">
+        <v>261</v>
+      </c>
+      <c r="G46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J32" t="s">
-        <v>232</v>
-      </c>
-      <c r="K32" t="s">
-        <v>237</v>
-      </c>
-      <c r="L32" t="s">
-        <v>238</v>
-      </c>
-      <c r="M32" t="s">
-        <v>239</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E47" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" t="s">
+        <v>262</v>
+      </c>
+      <c r="G47" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="O32" t="s">
+      <c r="B48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E48" t="s">
+        <v>263</v>
+      </c>
+      <c r="F48" t="s">
+        <v>263</v>
+      </c>
+      <c r="G48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="P32" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="B49" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" t="s">
+        <v>264</v>
+      </c>
+      <c r="E49" t="s">
+        <v>264</v>
+      </c>
+      <c r="F49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="R32" t="s">
+      <c r="B50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" t="s">
+        <v>265</v>
+      </c>
+      <c r="G50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="S32" t="s">
+      <c r="B51" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="T32" t="s">
+      <c r="B52" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="U32" t="s">
+      <c r="B53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" t="s">
+        <v>268</v>
+      </c>
+      <c r="F53" t="s">
+        <v>268</v>
+      </c>
+      <c r="G53" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="V32" t="s">
-        <v>241</v>
-      </c>
-      <c r="W32" t="s">
-        <v>232</v>
-      </c>
-      <c r="X32" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z32" t="s">
+      <c r="B54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E54" t="s">
+        <v>261</v>
+      </c>
+      <c r="F54" t="s">
+        <v>261</v>
+      </c>
+      <c r="G54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>269</v>
+      </c>
+      <c r="E55" t="s">
+        <v>269</v>
+      </c>
+      <c r="F55" t="s">
+        <v>269</v>
+      </c>
+      <c r="G55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" t="s">
+        <v>270</v>
+      </c>
+      <c r="F56" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57" t="s">
+        <v>261</v>
+      </c>
+      <c r="F57" t="s">
+        <v>261</v>
+      </c>
+      <c r="G57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AB32" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC32" t="s">
+      <c r="B58" t="s">
+        <v>271</v>
+      </c>
+      <c r="C58" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" t="s">
+        <v>271</v>
+      </c>
+      <c r="F58" t="s">
+        <v>271</v>
+      </c>
+      <c r="G58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AD32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>240</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI32" t="s">
+      <c r="S59" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AJ32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>239</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM32" t="s">
+      <c r="B60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" t="s">
+        <v>272</v>
+      </c>
+      <c r="E60" t="s">
+        <v>272</v>
+      </c>
+      <c r="F60" t="s">
+        <v>272</v>
+      </c>
+      <c r="G60" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AN32" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>232</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>257</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>241</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>232</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>257</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>258</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>261</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>262</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C33" t="s">
-        <v>233</v>
-      </c>
-      <c r="D33" t="s">
-        <v>233</v>
-      </c>
-      <c r="E33" t="s">
-        <v>233</v>
-      </c>
-      <c r="F33" t="s">
-        <v>233</v>
-      </c>
-      <c r="G33" t="s">
-        <v>233</v>
-      </c>
-      <c r="H33" t="s">
-        <v>233</v>
-      </c>
-      <c r="I33" t="s">
-        <v>233</v>
-      </c>
-      <c r="J33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K33" t="s">
-        <v>233</v>
-      </c>
-      <c r="L33" t="s">
-        <v>233</v>
-      </c>
-      <c r="M33" t="s">
-        <v>233</v>
-      </c>
-      <c r="N33" t="s">
-        <v>233</v>
-      </c>
-      <c r="O33" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>233</v>
-      </c>
-      <c r="R33" t="s">
-        <v>233</v>
-      </c>
-      <c r="S33" t="s">
-        <v>233</v>
-      </c>
-      <c r="T33" t="s">
-        <v>233</v>
-      </c>
-      <c r="U33" t="s">
-        <v>233</v>
-      </c>
-      <c r="V33" t="s">
-        <v>233</v>
-      </c>
-      <c r="W33" t="s">
-        <v>233</v>
-      </c>
-      <c r="X33" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>233</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>233</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>233</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F34" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34" t="s">
-        <v>234</v>
-      </c>
-      <c r="H34" t="s">
-        <v>234</v>
-      </c>
-      <c r="I34" t="s">
-        <v>234</v>
-      </c>
-      <c r="J34" t="s">
-        <v>234</v>
-      </c>
-      <c r="K34" t="s">
-        <v>234</v>
-      </c>
-      <c r="L34" t="s">
-        <v>234</v>
-      </c>
-      <c r="M34" t="s">
-        <v>234</v>
-      </c>
-      <c r="N34" t="s">
-        <v>234</v>
-      </c>
-      <c r="O34" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>234</v>
-      </c>
-      <c r="R34" t="s">
-        <v>234</v>
-      </c>
-      <c r="S34" t="s">
-        <v>234</v>
-      </c>
-      <c r="T34" t="s">
-        <v>234</v>
-      </c>
-      <c r="U34" t="s">
-        <v>234</v>
-      </c>
-      <c r="V34" t="s">
-        <v>234</v>
-      </c>
-      <c r="W34" t="s">
-        <v>234</v>
-      </c>
-      <c r="X34" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>234</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>234</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>234</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" t="s">
-        <v>235</v>
-      </c>
-      <c r="J36" t="s">
-        <v>235</v>
-      </c>
-      <c r="P36" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" t="s">
-        <v>236</v>
-      </c>
-      <c r="D37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="W38" t="s">
-        <v>249</v>
-      </c>
-      <c r="X38" t="s">
-        <v>250</v>
+      <c r="B61" t="s">
+        <v>273</v>
+      </c>
+      <c r="C61" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E61" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
